--- a/Code/Results/Cases/Case_5_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.57509774389932</v>
+        <v>22.48300479722585</v>
       </c>
       <c r="C2">
-        <v>6.465512489119529</v>
+        <v>4.247072341563377</v>
       </c>
       <c r="D2">
-        <v>2.112477692443574</v>
+        <v>3.649310245373474</v>
       </c>
       <c r="E2">
-        <v>5.939871509611465</v>
+        <v>10.61693970896897</v>
       </c>
       <c r="F2">
-        <v>42.01736105227017</v>
+        <v>57.10392951348879</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.284538328602153</v>
+        <v>10.48708288890912</v>
       </c>
       <c r="K2">
-        <v>14.05170755366505</v>
+        <v>18.568631698883</v>
       </c>
       <c r="L2">
-        <v>6.33462552967434</v>
+        <v>11.17439517568091</v>
       </c>
       <c r="M2">
-        <v>12.15452428275619</v>
+        <v>19.43303458844016</v>
       </c>
       <c r="N2">
-        <v>19.15599955564128</v>
+        <v>27.54712734425637</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.82567291337875</v>
+        <v>22.40308077528787</v>
       </c>
       <c r="C3">
-        <v>6.027883645182007</v>
+        <v>4.108768802822929</v>
       </c>
       <c r="D3">
-        <v>2.135903955880973</v>
+        <v>3.654995034379693</v>
       </c>
       <c r="E3">
-        <v>5.956057756462963</v>
+        <v>10.63237230661665</v>
       </c>
       <c r="F3">
-        <v>41.4016387516313</v>
+        <v>57.08455214805587</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.321218682646998</v>
+        <v>10.500422704204</v>
       </c>
       <c r="K3">
-        <v>13.48401584495426</v>
+        <v>18.51658840835048</v>
       </c>
       <c r="L3">
-        <v>6.306555824455201</v>
+        <v>11.19272610962114</v>
       </c>
       <c r="M3">
-        <v>11.92476597414854</v>
+        <v>19.44560374019683</v>
       </c>
       <c r="N3">
-        <v>19.26103878792738</v>
+        <v>27.58206109033638</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.3607430458298</v>
+        <v>22.35904677078685</v>
       </c>
       <c r="C4">
-        <v>5.745396521275874</v>
+        <v>4.022945984096367</v>
       </c>
       <c r="D4">
-        <v>2.149877889020631</v>
+        <v>3.658852132476552</v>
       </c>
       <c r="E4">
-        <v>5.967300204042579</v>
+        <v>10.64254986910854</v>
       </c>
       <c r="F4">
-        <v>41.0436543837687</v>
+        <v>57.08150425443407</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.344567369086797</v>
+        <v>10.5090885513824</v>
       </c>
       <c r="K4">
-        <v>13.13313789021281</v>
+        <v>18.48870533269224</v>
       </c>
       <c r="L4">
-        <v>6.291891422392183</v>
+        <v>11.20526829870492</v>
       </c>
       <c r="M4">
-        <v>11.78844272049115</v>
+        <v>19.45645224295323</v>
       </c>
       <c r="N4">
-        <v>19.33033913871955</v>
+        <v>27.60535589003679</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.17033818091105</v>
+        <v>22.34238331292925</v>
       </c>
       <c r="C5">
-        <v>5.626780429662332</v>
+        <v>3.987809609830477</v>
       </c>
       <c r="D5">
-        <v>2.155478882788957</v>
+        <v>3.660516374305203</v>
       </c>
       <c r="E5">
-        <v>5.972206331711691</v>
+        <v>10.64687425184969</v>
       </c>
       <c r="F5">
-        <v>40.9027735642579</v>
+        <v>57.08248996184113</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.354293719676113</v>
+        <v>10.51273978651474</v>
       </c>
       <c r="K5">
-        <v>12.98976471016865</v>
+        <v>18.47837483562726</v>
       </c>
       <c r="L5">
-        <v>6.286552578287121</v>
+        <v>11.21070335688265</v>
       </c>
       <c r="M5">
-        <v>11.73411817110298</v>
+        <v>19.46166118693002</v>
       </c>
       <c r="N5">
-        <v>19.35975970252117</v>
+        <v>27.61531298627308</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1386729340922</v>
+        <v>22.33969407741771</v>
       </c>
       <c r="C6">
-        <v>5.606871966887629</v>
+        <v>3.981967370116377</v>
       </c>
       <c r="D6">
-        <v>2.156403545173309</v>
+        <v>3.660798311230634</v>
       </c>
       <c r="E6">
-        <v>5.973040515396427</v>
+        <v>10.6476030124612</v>
       </c>
       <c r="F6">
-        <v>40.87968095081732</v>
+        <v>57.08278823922252</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.355921655311958</v>
+        <v>10.51335331926387</v>
       </c>
       <c r="K6">
-        <v>12.96594040001196</v>
+        <v>18.47672201892792</v>
       </c>
       <c r="L6">
-        <v>6.285704262783179</v>
+        <v>11.21162542547544</v>
       </c>
       <c r="M6">
-        <v>11.72517277251251</v>
+        <v>19.46257374545474</v>
       </c>
       <c r="N6">
-        <v>19.3647154560228</v>
+        <v>27.61699440304872</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.358178626259</v>
+        <v>22.35881683916829</v>
       </c>
       <c r="C7">
-        <v>5.743811039050102</v>
+        <v>4.022472693884661</v>
       </c>
       <c r="D7">
-        <v>2.149953792327566</v>
+        <v>3.658874202373933</v>
       </c>
       <c r="E7">
-        <v>5.967365058959544</v>
+        <v>10.64260747220639</v>
       </c>
       <c r="F7">
-        <v>41.04173423426013</v>
+        <v>57.08150852564415</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.344697680670512</v>
+        <v>10.5091373075538</v>
       </c>
       <c r="K7">
-        <v>13.13120560573805</v>
+        <v>18.48856182309479</v>
       </c>
       <c r="L7">
-        <v>6.291816854155184</v>
+        <v>11.20534028535094</v>
       </c>
       <c r="M7">
-        <v>11.78770506336708</v>
+        <v>19.45651930078829</v>
       </c>
       <c r="N7">
-        <v>19.33073117224412</v>
+        <v>27.6054882947986</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.31783348768247</v>
+        <v>22.4544095566214</v>
       </c>
       <c r="C8">
-        <v>6.31745608805306</v>
+        <v>4.199610172204615</v>
       </c>
       <c r="D8">
-        <v>2.120646095461451</v>
+        <v>3.651194422056828</v>
       </c>
       <c r="E8">
-        <v>5.945179898899975</v>
+        <v>10.62211546177363</v>
       </c>
       <c r="F8">
-        <v>41.80086781381408</v>
+        <v>57.09541308509421</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.297016374204799</v>
+        <v>10.49158405283807</v>
       </c>
       <c r="K8">
-        <v>13.85655676894832</v>
+        <v>18.54984733232598</v>
       </c>
       <c r="L8">
-        <v>6.324408018962487</v>
+        <v>11.18044882940861</v>
       </c>
       <c r="M8">
-        <v>12.07433860033638</v>
+        <v>19.43671911858464</v>
       </c>
       <c r="N8">
-        <v>19.19120182115913</v>
+        <v>27.5587896504173</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.15217188987208</v>
+        <v>22.68119387836503</v>
       </c>
       <c r="C9">
-        <v>7.33481049792074</v>
+        <v>4.537202758151968</v>
       </c>
       <c r="D9">
-        <v>2.059455491976053</v>
+        <v>3.639032292060668</v>
       </c>
       <c r="E9">
-        <v>5.912177400983676</v>
+        <v>10.5874799013982</v>
       </c>
       <c r="F9">
-        <v>43.45073497699491</v>
+        <v>57.19276502988115</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.209898323311856</v>
+        <v>10.46091627062965</v>
       </c>
       <c r="K9">
-        <v>15.25333489913772</v>
+        <v>18.70192784117249</v>
       </c>
       <c r="L9">
-        <v>6.40913016069502</v>
+        <v>11.14182986417536</v>
       </c>
       <c r="M9">
-        <v>12.67261590438714</v>
+        <v>19.42269349141464</v>
       </c>
       <c r="N9">
-        <v>18.95712277679129</v>
+        <v>27.48184492712019</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.46060262068371</v>
+        <v>22.87080879695501</v>
       </c>
       <c r="C10">
-        <v>8.01946700008229</v>
+        <v>4.776125989528954</v>
       </c>
       <c r="D10">
-        <v>2.011527936885725</v>
+        <v>3.631848833400898</v>
       </c>
       <c r="E10">
-        <v>5.894570958680906</v>
+        <v>10.56538896915438</v>
       </c>
       <c r="F10">
-        <v>44.76397651290296</v>
+        <v>57.30678953642497</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.149524909715002</v>
+        <v>10.4406510382011</v>
       </c>
       <c r="K10">
-        <v>16.25603325750157</v>
+        <v>18.83249690130033</v>
       </c>
       <c r="L10">
-        <v>6.484637963875219</v>
+        <v>11.11964601149177</v>
       </c>
       <c r="M10">
-        <v>13.13235815195653</v>
+        <v>19.42744507283012</v>
       </c>
       <c r="N10">
-        <v>18.81141467832616</v>
+        <v>27.43421913559732</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.04587110126311</v>
+        <v>22.96182624180022</v>
       </c>
       <c r="C11">
-        <v>8.317992042494183</v>
+        <v>4.882272588347334</v>
       </c>
       <c r="D11">
-        <v>1.988907000838587</v>
+        <v>3.628958282839176</v>
       </c>
       <c r="E11">
-        <v>5.888062579544814</v>
+        <v>10.55606218919147</v>
       </c>
       <c r="F11">
-        <v>45.38405342822567</v>
+        <v>57.36782288084255</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.122786343381121</v>
+        <v>10.43191927246374</v>
       </c>
       <c r="K11">
-        <v>16.70594689875056</v>
+        <v>18.89583520365835</v>
       </c>
       <c r="L11">
-        <v>6.521995132038912</v>
+        <v>11.11089250948155</v>
       </c>
       <c r="M11">
-        <v>13.3455551431131</v>
+        <v>19.43285785305971</v>
       </c>
       <c r="N11">
-        <v>18.75138185210398</v>
+        <v>27.41448382159763</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.26599200532354</v>
+        <v>22.9969548358075</v>
       </c>
       <c r="C12">
-        <v>8.429239860096132</v>
+        <v>4.922061232657027</v>
       </c>
       <c r="D12">
-        <v>1.980207570809315</v>
+        <v>3.627917703416532</v>
       </c>
       <c r="E12">
-        <v>5.885819402276116</v>
+        <v>10.55263382508217</v>
       </c>
       <c r="F12">
-        <v>45.62218933999643</v>
+        <v>57.39224456408986</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.112760002679918</v>
+        <v>10.42868244918603</v>
       </c>
       <c r="K12">
-        <v>16.8753629773459</v>
+        <v>18.92037236151037</v>
       </c>
       <c r="L12">
-        <v>6.536584646847066</v>
+        <v>11.10776970953683</v>
       </c>
       <c r="M12">
-        <v>13.42684864297542</v>
+        <v>19.43537307265954</v>
       </c>
       <c r="N12">
-        <v>18.72960007366665</v>
+        <v>27.40728788317992</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21865296073112</v>
+        <v>22.98936017745373</v>
       </c>
       <c r="C13">
-        <v>8.405359530073046</v>
+        <v>4.913510738938215</v>
       </c>
       <c r="D13">
-        <v>1.982087345367359</v>
+        <v>3.628139412502587</v>
       </c>
       <c r="E13">
-        <v>5.886292568474554</v>
+        <v>10.55336758859538</v>
       </c>
       <c r="F13">
-        <v>45.57075336518162</v>
+        <v>57.38692680669419</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.114915042540167</v>
+        <v>10.42937646185366</v>
       </c>
       <c r="K13">
-        <v>16.83891944680261</v>
+        <v>18.91506352125064</v>
       </c>
       <c r="L13">
-        <v>6.53342264821724</v>
+        <v>11.10843373018422</v>
       </c>
       <c r="M13">
-        <v>13.409316006487</v>
+        <v>19.43481070571054</v>
       </c>
       <c r="N13">
-        <v>18.73424795915986</v>
+        <v>27.40882532185486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.06401112046803</v>
+        <v>22.96470315144678</v>
       </c>
       <c r="C14">
-        <v>8.327180108699622</v>
+        <v>4.885554397506602</v>
       </c>
       <c r="D14">
-        <v>1.988194061338425</v>
+        <v>3.628871592670711</v>
       </c>
       <c r="E14">
-        <v>5.887873560675865</v>
+        <v>10.55577806395115</v>
       </c>
       <c r="F14">
-        <v>45.40357792002277</v>
+        <v>57.3698058686557</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.12195951892115</v>
+        <v>10.43165158186757</v>
       </c>
       <c r="K14">
-        <v>16.7199042944219</v>
+        <v>18.89784290731192</v>
       </c>
       <c r="L14">
-        <v>6.523186475533891</v>
+        <v>11.11063175029372</v>
       </c>
       <c r="M14">
-        <v>13.35223208579924</v>
+        <v>19.4330554644127</v>
       </c>
       <c r="N14">
-        <v>18.74957046405046</v>
+        <v>27.41388624865376</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.9690904637789</v>
+        <v>22.94968557571037</v>
       </c>
       <c r="C15">
-        <v>8.279060854954233</v>
+        <v>4.868376205847269</v>
       </c>
       <c r="D15">
-        <v>1.991916742781618</v>
+        <v>3.629327100755418</v>
       </c>
       <c r="E15">
-        <v>5.888870972992541</v>
+        <v>10.55726801442366</v>
       </c>
       <c r="F15">
-        <v>45.30161351162727</v>
+        <v>57.35948910535774</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.126287187183296</v>
+        <v>10.43305422696325</v>
       </c>
       <c r="K15">
-        <v>16.64687811475202</v>
+        <v>18.88736626669302</v>
       </c>
       <c r="L15">
-        <v>6.516974562631578</v>
+        <v>11.11200308648662</v>
       </c>
       <c r="M15">
-        <v>13.31733894404236</v>
+        <v>19.43204088869724</v>
       </c>
       <c r="N15">
-        <v>18.75908149247918</v>
+        <v>27.41702233414989</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.42214645252222</v>
+        <v>22.86495450822505</v>
       </c>
       <c r="C16">
-        <v>7.999702696299712</v>
+        <v>4.76913428941279</v>
       </c>
       <c r="D16">
-        <v>2.012988490205789</v>
+        <v>3.632045308398739</v>
       </c>
       <c r="E16">
-        <v>5.89502696209593</v>
+        <v>10.56601299960198</v>
       </c>
       <c r="F16">
-        <v>44.72391459090381</v>
+        <v>57.30298459094042</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.151286489328911</v>
+        <v>10.4412314515542</v>
       </c>
       <c r="K16">
-        <v>16.22649929668561</v>
+        <v>18.82843569306792</v>
       </c>
       <c r="L16">
-        <v>6.482258009562269</v>
+        <v>11.1202449604565</v>
       </c>
       <c r="M16">
-        <v>13.11850476641272</v>
+        <v>19.42715659232715</v>
       </c>
       <c r="N16">
-        <v>18.81546810247738</v>
+        <v>27.43554770891703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.08400131499709</v>
+        <v>22.81417855363778</v>
       </c>
       <c r="C17">
-        <v>7.825056479980789</v>
+        <v>4.707570923492212</v>
       </c>
       <c r="D17">
-        <v>2.025694976901205</v>
+        <v>3.633809291760348</v>
       </c>
       <c r="E17">
-        <v>5.899191666149147</v>
+        <v>10.57156252143248</v>
       </c>
       <c r="F17">
-        <v>44.37536505590404</v>
+        <v>57.27066243961605</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.166804902958432</v>
+        <v>10.44637241410669</v>
       </c>
       <c r="K17">
-        <v>15.96696524814292</v>
+        <v>18.79328324019813</v>
       </c>
       <c r="L17">
-        <v>6.461738361634866</v>
+        <v>11.1256434757676</v>
       </c>
       <c r="M17">
-        <v>12.99754741142906</v>
+        <v>19.424991607861</v>
       </c>
       <c r="N17">
-        <v>18.85169597865737</v>
+        <v>27.44740663311773</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.88857576407263</v>
+        <v>22.78542307548229</v>
       </c>
       <c r="C18">
-        <v>7.723383646055948</v>
+        <v>4.671924332782545</v>
       </c>
       <c r="D18">
-        <v>2.032927394152521</v>
+        <v>3.634859410171438</v>
       </c>
       <c r="E18">
-        <v>5.901727997453193</v>
+        <v>10.57482248864653</v>
       </c>
       <c r="F18">
-        <v>44.17701837253129</v>
+        <v>57.25293460083252</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.175799325339951</v>
+        <v>10.4493752166656</v>
       </c>
       <c r="K18">
-        <v>15.8171048526953</v>
+        <v>18.77343642405847</v>
       </c>
       <c r="L18">
-        <v>6.450218495161724</v>
+        <v>11.12887452997959</v>
       </c>
       <c r="M18">
-        <v>12.92835893238424</v>
+        <v>19.42405252586711</v>
       </c>
       <c r="N18">
-        <v>18.8731181537565</v>
+        <v>27.45440923060318</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.82225063581589</v>
+        <v>22.77576482921146</v>
       </c>
       <c r="C19">
-        <v>7.688747477093366</v>
+        <v>4.659815645948666</v>
       </c>
       <c r="D19">
-        <v>2.03536356551986</v>
+        <v>3.635221070377596</v>
       </c>
       <c r="E19">
-        <v>5.902610795175126</v>
+        <v>10.57593795408432</v>
       </c>
       <c r="F19">
-        <v>44.11022563268207</v>
+        <v>57.24708070728865</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.178856628415754</v>
+        <v>10.45039979982703</v>
       </c>
       <c r="K19">
-        <v>15.76626683805947</v>
+        <v>18.76678094259576</v>
       </c>
       <c r="L19">
-        <v>6.446366272212511</v>
+        <v>11.12999015839151</v>
       </c>
       <c r="M19">
-        <v>12.90499948584928</v>
+        <v>19.4237872093679</v>
       </c>
       <c r="N19">
-        <v>18.88047027538225</v>
+        <v>27.45681139347465</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.12009471649317</v>
+        <v>22.81953737630216</v>
       </c>
       <c r="C20">
-        <v>7.843773800837173</v>
+        <v>4.714149288824119</v>
       </c>
       <c r="D20">
-        <v>2.024350326410909</v>
+        <v>3.633617838079349</v>
       </c>
       <c r="E20">
-        <v>5.898733704698749</v>
+        <v>10.5709647275863</v>
       </c>
       <c r="F20">
-        <v>44.41224789799729</v>
+        <v>57.27401392398308</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.165145874810345</v>
+        <v>10.44582040618896</v>
       </c>
       <c r="K20">
-        <v>15.99465399004262</v>
+        <v>18.796986886178</v>
       </c>
       <c r="L20">
-        <v>6.463893401695161</v>
+        <v>11.12505576025344</v>
       </c>
       <c r="M20">
-        <v>13.01038407741348</v>
+        <v>19.42519040153683</v>
       </c>
       <c r="N20">
-        <v>18.84777856627696</v>
+        <v>27.44612543030611</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.10947454572833</v>
+        <v>22.97192772746105</v>
       </c>
       <c r="C21">
-        <v>8.350191550396877</v>
+        <v>4.89377719994885</v>
       </c>
       <c r="D21">
-        <v>1.986404122519519</v>
+        <v>3.628655069695022</v>
       </c>
       <c r="E21">
-        <v>5.887403128708915</v>
+        <v>10.55506724360052</v>
       </c>
       <c r="F21">
-        <v>45.45259052876388</v>
+        <v>57.37479922724986</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.119887744142795</v>
+        <v>10.43098143469471</v>
       </c>
       <c r="K21">
-        <v>16.75488825476726</v>
+        <v>18.90288614922888</v>
       </c>
       <c r="L21">
-        <v>6.526180972574198</v>
+        <v>11.10998093239623</v>
       </c>
       <c r="M21">
-        <v>13.36898395924092</v>
+        <v>19.43355840455382</v>
       </c>
       <c r="N21">
-        <v>18.74504360610592</v>
+        <v>27.41239220425171</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.74729174610104</v>
+        <v>23.07537268550512</v>
       </c>
       <c r="C22">
-        <v>8.670722835836372</v>
+        <v>5.008787377315288</v>
       </c>
       <c r="D22">
-        <v>1.960818368640337</v>
+        <v>3.625726312293048</v>
       </c>
       <c r="E22">
-        <v>5.881291482879917</v>
+        <v>10.54528032095776</v>
       </c>
       <c r="F22">
-        <v>46.15194500508814</v>
+        <v>57.44829766151456</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.090883039367309</v>
+        <v>10.42168946679894</v>
       </c>
       <c r="K22">
-        <v>17.24615980462073</v>
+        <v>18.97530944014159</v>
       </c>
       <c r="L22">
-        <v>6.569478049908676</v>
+        <v>11.10124733684476</v>
       </c>
       <c r="M22">
-        <v>13.60661046377938</v>
+        <v>19.4417396643047</v>
       </c>
       <c r="N22">
-        <v>18.68347423330313</v>
+        <v>27.3919624169759</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.40769890481074</v>
+        <v>23.01981763317831</v>
       </c>
       <c r="C23">
-        <v>8.500582655317348</v>
+        <v>4.947635225136517</v>
       </c>
       <c r="D23">
-        <v>1.974551416805601</v>
+        <v>3.627260728343036</v>
       </c>
       <c r="E23">
-        <v>5.884433024205133</v>
+        <v>10.55044874545306</v>
       </c>
       <c r="F23">
-        <v>45.77688256997513</v>
+        <v>57.40837496243793</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.10631274931743</v>
+        <v>10.42661170707415</v>
       </c>
       <c r="K23">
-        <v>16.98448385366791</v>
+        <v>18.93636688190603</v>
       </c>
       <c r="L23">
-        <v>6.546129051783085</v>
+        <v>11.10580641516328</v>
       </c>
       <c r="M23">
-        <v>13.47949225852711</v>
+        <v>19.43712572472418</v>
       </c>
       <c r="N23">
-        <v>18.71580605662382</v>
+        <v>27.40271827844912</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.10378006483234</v>
+        <v>22.81711329183502</v>
       </c>
       <c r="C24">
-        <v>7.835315649237662</v>
+        <v>4.711175994694713</v>
       </c>
       <c r="D24">
-        <v>2.024958468209677</v>
+        <v>3.633704282215672</v>
       </c>
       <c r="E24">
-        <v>5.898940307225104</v>
+        <v>10.57123477376143</v>
       </c>
       <c r="F24">
-        <v>44.3955668184962</v>
+        <v>57.27249605511747</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.165895694654544</v>
+        <v>10.44606982193314</v>
       </c>
       <c r="K24">
-        <v>15.98213793193847</v>
+        <v>18.79531133662397</v>
       </c>
       <c r="L24">
-        <v>6.462918245606211</v>
+        <v>11.12532106963696</v>
       </c>
       <c r="M24">
-        <v>13.00457952398637</v>
+        <v>19.42509957483492</v>
       </c>
       <c r="N24">
-        <v>18.84954778124723</v>
+        <v>27.44670408653252</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.66222094651222</v>
+        <v>22.61572791106275</v>
       </c>
       <c r="C25">
-        <v>7.070833966615006</v>
+        <v>4.447265197198667</v>
       </c>
       <c r="D25">
-        <v>2.076476438131832</v>
+        <v>3.642013742490572</v>
       </c>
       <c r="E25">
-        <v>5.919957857258145</v>
+        <v>10.59625847187853</v>
       </c>
       <c r="F25">
-        <v>42.98685947929182</v>
+        <v>57.15894498524447</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.232808414377752</v>
+        <v>10.46881312225421</v>
       </c>
       <c r="K25">
-        <v>14.87912640045022</v>
+        <v>18.65743003132829</v>
       </c>
       <c r="L25">
-        <v>6.38392327366894</v>
+        <v>11.15118853850951</v>
       </c>
       <c r="M25">
-        <v>12.50709291922233</v>
+        <v>19.42383821501754</v>
       </c>
       <c r="N25">
-        <v>19.01600486498122</v>
+        <v>27.50109561036115</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.48300479722585</v>
+        <v>17.57509774389953</v>
       </c>
       <c r="C2">
-        <v>4.247072341563377</v>
+        <v>6.465512489119596</v>
       </c>
       <c r="D2">
-        <v>3.649310245373474</v>
+        <v>2.112477692443443</v>
       </c>
       <c r="E2">
-        <v>10.61693970896897</v>
+        <v>5.939871509611534</v>
       </c>
       <c r="F2">
-        <v>57.10392951348879</v>
+        <v>42.01736105227069</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.48708288890912</v>
+        <v>6.284538328602155</v>
       </c>
       <c r="K2">
-        <v>18.568631698883</v>
+        <v>14.05170755366518</v>
       </c>
       <c r="L2">
-        <v>11.17439517568091</v>
+        <v>6.334625529674376</v>
       </c>
       <c r="M2">
-        <v>19.43303458844016</v>
+        <v>12.15452428275636</v>
       </c>
       <c r="N2">
-        <v>27.54712734425637</v>
+        <v>19.15599955564144</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.40308077528787</v>
+        <v>16.82567291337869</v>
       </c>
       <c r="C3">
-        <v>4.108768802822929</v>
+        <v>6.027883645181985</v>
       </c>
       <c r="D3">
-        <v>3.654995034379693</v>
+        <v>2.135903955880972</v>
       </c>
       <c r="E3">
-        <v>10.63237230661665</v>
+        <v>5.956057756462962</v>
       </c>
       <c r="F3">
-        <v>57.08455214805587</v>
+        <v>41.4016387516312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.500422704204</v>
+        <v>6.321218682646998</v>
       </c>
       <c r="K3">
-        <v>18.51658840835048</v>
+        <v>13.4840158449542</v>
       </c>
       <c r="L3">
-        <v>11.19272610962114</v>
+        <v>6.306555824455231</v>
       </c>
       <c r="M3">
-        <v>19.44560374019683</v>
+        <v>11.9247659741485</v>
       </c>
       <c r="N3">
-        <v>27.58206109033638</v>
+        <v>19.26103878792734</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35904677078685</v>
+        <v>16.36074304582977</v>
       </c>
       <c r="C4">
-        <v>4.022945984096367</v>
+        <v>5.74539652127581</v>
       </c>
       <c r="D4">
-        <v>3.658852132476552</v>
+        <v>2.149877889020495</v>
       </c>
       <c r="E4">
-        <v>10.64254986910854</v>
+        <v>5.967300204042769</v>
       </c>
       <c r="F4">
-        <v>57.08150425443407</v>
+        <v>41.04365438376852</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.5090885513824</v>
+        <v>6.34456736908683</v>
       </c>
       <c r="K4">
-        <v>18.48870533269224</v>
+        <v>13.13313789021282</v>
       </c>
       <c r="L4">
-        <v>11.20526829870492</v>
+        <v>6.291891422392267</v>
       </c>
       <c r="M4">
-        <v>19.45645224295323</v>
+        <v>11.78844272049118</v>
       </c>
       <c r="N4">
-        <v>27.60535589003679</v>
+        <v>19.33033913871935</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.34238331292925</v>
+        <v>16.17033818091105</v>
       </c>
       <c r="C5">
-        <v>3.987809609830477</v>
+        <v>5.626780429662317</v>
       </c>
       <c r="D5">
-        <v>3.660516374305203</v>
+        <v>2.155478882788823</v>
       </c>
       <c r="E5">
-        <v>10.64687425184969</v>
+        <v>5.972206331711693</v>
       </c>
       <c r="F5">
-        <v>57.08248996184113</v>
+        <v>40.90277356425801</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.51273978651474</v>
+        <v>6.354293719676016</v>
       </c>
       <c r="K5">
-        <v>18.47837483562726</v>
+        <v>12.98976471016865</v>
       </c>
       <c r="L5">
-        <v>11.21070335688265</v>
+        <v>6.286552578287123</v>
       </c>
       <c r="M5">
-        <v>19.46166118693002</v>
+        <v>11.73411817110299</v>
       </c>
       <c r="N5">
-        <v>27.61531298627308</v>
+        <v>19.3597597025212</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.33969407741771</v>
+        <v>16.13867293409212</v>
       </c>
       <c r="C6">
-        <v>3.981967370116377</v>
+        <v>5.60687196688778</v>
       </c>
       <c r="D6">
-        <v>3.660798311230634</v>
+        <v>2.156403545173174</v>
       </c>
       <c r="E6">
-        <v>10.6476030124612</v>
+        <v>5.973040515396492</v>
       </c>
       <c r="F6">
-        <v>57.08278823922252</v>
+        <v>40.87968095081683</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.51335331926387</v>
+        <v>6.355921655311929</v>
       </c>
       <c r="K6">
-        <v>18.47672201892792</v>
+        <v>12.96594040001185</v>
       </c>
       <c r="L6">
-        <v>11.21162542547544</v>
+        <v>6.285704262783172</v>
       </c>
       <c r="M6">
-        <v>19.46257374545474</v>
+        <v>11.72517277251244</v>
       </c>
       <c r="N6">
-        <v>27.61699440304872</v>
+        <v>19.36471545602253</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.35881683916829</v>
+        <v>16.3581786262591</v>
       </c>
       <c r="C7">
-        <v>4.022472693884661</v>
+        <v>5.743811039050179</v>
       </c>
       <c r="D7">
-        <v>3.658874202373933</v>
+        <v>2.149953792327769</v>
       </c>
       <c r="E7">
-        <v>10.64260747220639</v>
+        <v>5.967365058959542</v>
       </c>
       <c r="F7">
-        <v>57.08150852564415</v>
+        <v>41.04173423426013</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.5091373075538</v>
+        <v>6.344697680670608</v>
       </c>
       <c r="K7">
-        <v>18.48856182309479</v>
+        <v>13.13120560573811</v>
       </c>
       <c r="L7">
-        <v>11.20534028535094</v>
+        <v>6.291816854155212</v>
       </c>
       <c r="M7">
-        <v>19.45651930078829</v>
+        <v>11.78770506336714</v>
       </c>
       <c r="N7">
-        <v>27.6054882947986</v>
+        <v>19.33073117224414</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.4544095566214</v>
+        <v>17.31783348768243</v>
       </c>
       <c r="C8">
-        <v>4.199610172204615</v>
+        <v>6.317456088053023</v>
       </c>
       <c r="D8">
-        <v>3.651194422056828</v>
+        <v>2.120646095461454</v>
       </c>
       <c r="E8">
-        <v>10.62211546177363</v>
+        <v>5.945179898900041</v>
       </c>
       <c r="F8">
-        <v>57.09541308509421</v>
+        <v>41.80086781381399</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.49158405283807</v>
+        <v>6.297016374204831</v>
       </c>
       <c r="K8">
-        <v>18.54984733232598</v>
+        <v>13.8565567689483</v>
       </c>
       <c r="L8">
-        <v>11.18044882940861</v>
+        <v>6.32440801896252</v>
       </c>
       <c r="M8">
-        <v>19.43671911858464</v>
+        <v>12.07433860033641</v>
       </c>
       <c r="N8">
-        <v>27.5587896504173</v>
+        <v>19.19120182115904</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.68119387836503</v>
+        <v>19.15217188987203</v>
       </c>
       <c r="C9">
-        <v>4.537202758151968</v>
+        <v>7.334810497920724</v>
       </c>
       <c r="D9">
-        <v>3.639032292060668</v>
+        <v>2.059455491975847</v>
       </c>
       <c r="E9">
-        <v>10.5874799013982</v>
+        <v>5.912177400983612</v>
       </c>
       <c r="F9">
-        <v>57.19276502988115</v>
+        <v>43.4507349769948</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.46091627062965</v>
+        <v>6.20989832331173</v>
       </c>
       <c r="K9">
-        <v>18.70192784117249</v>
+        <v>15.25333489913768</v>
       </c>
       <c r="L9">
-        <v>11.14182986417536</v>
+        <v>6.409130160695001</v>
       </c>
       <c r="M9">
-        <v>19.42269349141464</v>
+        <v>12.67261590438708</v>
       </c>
       <c r="N9">
-        <v>27.48184492712019</v>
+        <v>18.95712277679128</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.87080879695501</v>
+        <v>20.46060262068372</v>
       </c>
       <c r="C10">
-        <v>4.776125989528954</v>
+        <v>8.019467000082225</v>
       </c>
       <c r="D10">
-        <v>3.631848833400898</v>
+        <v>2.01152793688579</v>
       </c>
       <c r="E10">
-        <v>10.56538896915438</v>
+        <v>5.894570958680787</v>
       </c>
       <c r="F10">
-        <v>57.30678953642497</v>
+        <v>44.7639765129029</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.4406510382011</v>
+        <v>6.149524909714973</v>
       </c>
       <c r="K10">
-        <v>18.83249690130033</v>
+        <v>16.25603325750157</v>
       </c>
       <c r="L10">
-        <v>11.11964601149177</v>
+        <v>6.484637963875175</v>
       </c>
       <c r="M10">
-        <v>19.42744507283012</v>
+        <v>13.1323581519565</v>
       </c>
       <c r="N10">
-        <v>27.43421913559732</v>
+        <v>18.81141467832611</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.96182624180022</v>
+        <v>21.04587110126312</v>
       </c>
       <c r="C11">
-        <v>4.882272588347334</v>
+        <v>8.317992042494511</v>
       </c>
       <c r="D11">
-        <v>3.628958282839176</v>
+        <v>1.988907000838386</v>
       </c>
       <c r="E11">
-        <v>10.55606218919147</v>
+        <v>5.888062579544989</v>
       </c>
       <c r="F11">
-        <v>57.36782288084255</v>
+        <v>45.38405342822571</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43191927246374</v>
+        <v>6.122786343381215</v>
       </c>
       <c r="K11">
-        <v>18.89583520365835</v>
+        <v>16.70594689875056</v>
       </c>
       <c r="L11">
-        <v>11.11089250948155</v>
+        <v>6.521995132038917</v>
       </c>
       <c r="M11">
-        <v>19.43285785305971</v>
+        <v>13.34555514311313</v>
       </c>
       <c r="N11">
-        <v>27.41448382159763</v>
+        <v>18.751381852104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.9969548358075</v>
+        <v>21.2659920053235</v>
       </c>
       <c r="C12">
-        <v>4.922061232657027</v>
+        <v>8.429239860096114</v>
       </c>
       <c r="D12">
-        <v>3.627917703416532</v>
+        <v>1.980207570809447</v>
       </c>
       <c r="E12">
-        <v>10.55263382508217</v>
+        <v>5.885819402276068</v>
       </c>
       <c r="F12">
-        <v>57.39224456408986</v>
+        <v>45.62218933999603</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.42868244918603</v>
+        <v>6.112760002679929</v>
       </c>
       <c r="K12">
-        <v>18.92037236151037</v>
+        <v>16.87536297734587</v>
       </c>
       <c r="L12">
-        <v>11.10776970953683</v>
+        <v>6.536584646847055</v>
       </c>
       <c r="M12">
-        <v>19.43537307265954</v>
+        <v>13.42684864297531</v>
       </c>
       <c r="N12">
-        <v>27.40728788317992</v>
+        <v>18.72960007366642</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.98936017745373</v>
+        <v>21.21865296073115</v>
       </c>
       <c r="C13">
-        <v>4.913510738938215</v>
+        <v>8.405359530073083</v>
       </c>
       <c r="D13">
-        <v>3.628139412502587</v>
+        <v>1.982087345367494</v>
       </c>
       <c r="E13">
-        <v>10.55336758859538</v>
+        <v>5.886292568474619</v>
       </c>
       <c r="F13">
-        <v>57.38692680669419</v>
+        <v>45.57075336518144</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.42937646185366</v>
+        <v>6.114915042540294</v>
       </c>
       <c r="K13">
-        <v>18.91506352125064</v>
+        <v>16.8389194468026</v>
       </c>
       <c r="L13">
-        <v>11.10843373018422</v>
+        <v>6.533422648217237</v>
       </c>
       <c r="M13">
-        <v>19.43481070571054</v>
+        <v>13.40931600648698</v>
       </c>
       <c r="N13">
-        <v>27.40882532185486</v>
+        <v>18.73424795915971</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.96470315144678</v>
+        <v>21.06401112046806</v>
       </c>
       <c r="C14">
-        <v>4.885554397506602</v>
+        <v>8.327180108699419</v>
       </c>
       <c r="D14">
-        <v>3.628871592670711</v>
+        <v>1.988194061338689</v>
       </c>
       <c r="E14">
-        <v>10.55577806395115</v>
+        <v>5.887873560675862</v>
       </c>
       <c r="F14">
-        <v>57.3698058686557</v>
+        <v>45.40357792002298</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43165158186757</v>
+        <v>6.121959518921242</v>
       </c>
       <c r="K14">
-        <v>18.89784290731192</v>
+        <v>16.71990429442194</v>
       </c>
       <c r="L14">
-        <v>11.11063175029372</v>
+        <v>6.523186475533925</v>
       </c>
       <c r="M14">
-        <v>19.4330554644127</v>
+        <v>13.35223208579933</v>
       </c>
       <c r="N14">
-        <v>27.41388624865376</v>
+        <v>18.74957046405065</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94968557571037</v>
+        <v>20.96909046377885</v>
       </c>
       <c r="C15">
-        <v>4.868376205847269</v>
+        <v>8.279060854954366</v>
       </c>
       <c r="D15">
-        <v>3.629327100755418</v>
+        <v>1.991916742781616</v>
       </c>
       <c r="E15">
-        <v>10.55726801442366</v>
+        <v>5.888870972992777</v>
       </c>
       <c r="F15">
-        <v>57.35948910535774</v>
+        <v>45.301613511627</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.43305422696325</v>
+        <v>6.126287187183423</v>
       </c>
       <c r="K15">
-        <v>18.88736626669302</v>
+        <v>16.64687811475196</v>
       </c>
       <c r="L15">
-        <v>11.11200308648662</v>
+        <v>6.516974562631717</v>
       </c>
       <c r="M15">
-        <v>19.43204088869724</v>
+        <v>13.31733894404234</v>
       </c>
       <c r="N15">
-        <v>27.41702233414989</v>
+        <v>18.75908149247909</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.86495450822505</v>
+        <v>20.42214645252221</v>
       </c>
       <c r="C16">
-        <v>4.76913428941279</v>
+        <v>7.999702696299601</v>
       </c>
       <c r="D16">
-        <v>3.632045308398739</v>
+        <v>2.012988490205855</v>
       </c>
       <c r="E16">
-        <v>10.56601299960198</v>
+        <v>5.895026962095872</v>
       </c>
       <c r="F16">
-        <v>57.30298459094042</v>
+        <v>44.72391459090372</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.4412314515542</v>
+        <v>6.151286489328911</v>
       </c>
       <c r="K16">
-        <v>18.82843569306792</v>
+        <v>16.2264992966856</v>
       </c>
       <c r="L16">
-        <v>11.1202449604565</v>
+        <v>6.482258009562263</v>
       </c>
       <c r="M16">
-        <v>19.42715659232715</v>
+        <v>13.11850476641269</v>
       </c>
       <c r="N16">
-        <v>27.43554770891703</v>
+        <v>18.81546810247738</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.81417855363778</v>
+        <v>20.08400131499707</v>
       </c>
       <c r="C17">
-        <v>4.707570923492212</v>
+        <v>7.825056479980791</v>
       </c>
       <c r="D17">
-        <v>3.633809291760348</v>
+        <v>2.025694976901137</v>
       </c>
       <c r="E17">
-        <v>10.57156252143248</v>
+        <v>5.899191666149204</v>
       </c>
       <c r="F17">
-        <v>57.27066243961605</v>
+        <v>44.375365055904</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.44637241410669</v>
+        <v>6.1668049029585</v>
       </c>
       <c r="K17">
-        <v>18.79328324019813</v>
+        <v>15.96696524814289</v>
       </c>
       <c r="L17">
-        <v>11.1256434757676</v>
+        <v>6.46173836163491</v>
       </c>
       <c r="M17">
-        <v>19.424991607861</v>
+        <v>12.99754741142904</v>
       </c>
       <c r="N17">
-        <v>27.44740663311773</v>
+        <v>18.85169597865739</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.78542307548229</v>
+        <v>19.88857576407268</v>
       </c>
       <c r="C18">
-        <v>4.671924332782545</v>
+        <v>7.723383646055897</v>
       </c>
       <c r="D18">
-        <v>3.634859410171438</v>
+        <v>2.03292739415272</v>
       </c>
       <c r="E18">
-        <v>10.57482248864653</v>
+        <v>5.901727997453008</v>
       </c>
       <c r="F18">
-        <v>57.25293460083252</v>
+        <v>44.17701837253155</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.4493752166656</v>
+        <v>6.17579932533995</v>
       </c>
       <c r="K18">
-        <v>18.77343642405847</v>
+        <v>15.81710485269536</v>
       </c>
       <c r="L18">
-        <v>11.12887452997959</v>
+        <v>6.45021849516166</v>
       </c>
       <c r="M18">
-        <v>19.42405252586711</v>
+        <v>12.92835893238427</v>
       </c>
       <c r="N18">
-        <v>27.45440923060318</v>
+        <v>18.87311815375667</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77576482921146</v>
+        <v>19.82225063581586</v>
       </c>
       <c r="C19">
-        <v>4.659815645948666</v>
+        <v>7.688747477093397</v>
       </c>
       <c r="D19">
-        <v>3.635221070377596</v>
+        <v>2.035363565519924</v>
       </c>
       <c r="E19">
-        <v>10.57593795408432</v>
+        <v>5.902610795175055</v>
       </c>
       <c r="F19">
-        <v>57.24708070728865</v>
+        <v>44.11022563268209</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.45039979982703</v>
+        <v>6.178856628415623</v>
       </c>
       <c r="K19">
-        <v>18.76678094259576</v>
+        <v>15.76626683805947</v>
       </c>
       <c r="L19">
-        <v>11.12999015839151</v>
+        <v>6.446366272212447</v>
       </c>
       <c r="M19">
-        <v>19.4237872093679</v>
+        <v>12.90499948584923</v>
       </c>
       <c r="N19">
-        <v>27.45681139347465</v>
+        <v>18.88047027538232</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.81953737630216</v>
+        <v>20.12009471649318</v>
       </c>
       <c r="C20">
-        <v>4.714149288824119</v>
+        <v>7.843773800837253</v>
       </c>
       <c r="D20">
-        <v>3.633617838079349</v>
+        <v>2.024350326411109</v>
       </c>
       <c r="E20">
-        <v>10.5709647275863</v>
+        <v>5.898733704698621</v>
       </c>
       <c r="F20">
-        <v>57.27401392398308</v>
+        <v>44.41224789799725</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.44582040618896</v>
+        <v>6.165145874810344</v>
       </c>
       <c r="K20">
-        <v>18.796986886178</v>
+        <v>15.99465399004261</v>
       </c>
       <c r="L20">
-        <v>11.12505576025344</v>
+        <v>6.46389340169504</v>
       </c>
       <c r="M20">
-        <v>19.42519040153683</v>
+        <v>13.01038407741346</v>
       </c>
       <c r="N20">
-        <v>27.44612543030611</v>
+        <v>18.84777856627706</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.97192772746105</v>
+        <v>21.10947454572832</v>
       </c>
       <c r="C21">
-        <v>4.89377719994885</v>
+        <v>8.350191550396877</v>
       </c>
       <c r="D21">
-        <v>3.628655069695022</v>
+        <v>1.986404122519382</v>
       </c>
       <c r="E21">
-        <v>10.55506724360052</v>
+        <v>5.887403128708855</v>
       </c>
       <c r="F21">
-        <v>57.37479922724986</v>
+        <v>45.45259052876378</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43098143469471</v>
+        <v>6.119887744142729</v>
       </c>
       <c r="K21">
-        <v>18.90288614922888</v>
+        <v>16.75488825476724</v>
       </c>
       <c r="L21">
-        <v>11.10998093239623</v>
+        <v>6.526180972574121</v>
       </c>
       <c r="M21">
-        <v>19.43355840455382</v>
+        <v>13.36898395924088</v>
       </c>
       <c r="N21">
-        <v>27.41239220425171</v>
+        <v>18.74504360610583</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.07537268550512</v>
+        <v>21.74729174610101</v>
       </c>
       <c r="C22">
-        <v>5.008787377315288</v>
+        <v>8.670722835836402</v>
       </c>
       <c r="D22">
-        <v>3.625726312293048</v>
+        <v>1.960818368640799</v>
       </c>
       <c r="E22">
-        <v>10.54528032095776</v>
+        <v>5.881291482879962</v>
       </c>
       <c r="F22">
-        <v>57.44829766151456</v>
+        <v>46.1519450050878</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.42168946679894</v>
+        <v>6.090883039367466</v>
       </c>
       <c r="K22">
-        <v>18.97530944014159</v>
+        <v>17.2461598046207</v>
       </c>
       <c r="L22">
-        <v>11.10124733684476</v>
+        <v>6.569478049908696</v>
       </c>
       <c r="M22">
-        <v>19.4417396643047</v>
+        <v>13.60661046377934</v>
       </c>
       <c r="N22">
-        <v>27.3919624169759</v>
+        <v>18.68347423330303</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.01981763317831</v>
+        <v>21.40769890481068</v>
       </c>
       <c r="C23">
-        <v>4.947635225136517</v>
+        <v>8.500582655317405</v>
       </c>
       <c r="D23">
-        <v>3.627260728343036</v>
+        <v>1.974551416805403</v>
       </c>
       <c r="E23">
-        <v>10.55044874545306</v>
+        <v>5.884433024205252</v>
       </c>
       <c r="F23">
-        <v>57.40837496243793</v>
+        <v>45.77688256997518</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.42661170707415</v>
+        <v>6.106312749317459</v>
       </c>
       <c r="K23">
-        <v>18.93636688190603</v>
+        <v>16.98448385366789</v>
       </c>
       <c r="L23">
-        <v>11.10580641516328</v>
+        <v>6.546129051783154</v>
       </c>
       <c r="M23">
-        <v>19.43712572472418</v>
+        <v>13.47949225852713</v>
       </c>
       <c r="N23">
-        <v>27.40271827844912</v>
+        <v>18.71580605662382</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.81711329183502</v>
+        <v>20.10378006483242</v>
       </c>
       <c r="C24">
-        <v>4.711175994694713</v>
+        <v>7.835315649237796</v>
       </c>
       <c r="D24">
-        <v>3.633704282215672</v>
+        <v>2.024958468209745</v>
       </c>
       <c r="E24">
-        <v>10.57123477376143</v>
+        <v>5.898940307225289</v>
       </c>
       <c r="F24">
-        <v>57.27249605511747</v>
+        <v>44.3955668184964</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.44606982193314</v>
+        <v>6.165895694654735</v>
       </c>
       <c r="K24">
-        <v>18.79531133662397</v>
+        <v>15.98213793193849</v>
       </c>
       <c r="L24">
-        <v>11.12532106963696</v>
+        <v>6.462918245606214</v>
       </c>
       <c r="M24">
-        <v>19.42509957483492</v>
+        <v>13.00457952398645</v>
       </c>
       <c r="N24">
-        <v>27.44670408653252</v>
+        <v>18.8495477812474</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.61572791106275</v>
+        <v>18.66222094651229</v>
       </c>
       <c r="C25">
-        <v>4.447265197198667</v>
+        <v>7.070833966614802</v>
       </c>
       <c r="D25">
-        <v>3.642013742490572</v>
+        <v>2.076476438132167</v>
       </c>
       <c r="E25">
-        <v>10.59625847187853</v>
+        <v>5.919957857258148</v>
       </c>
       <c r="F25">
-        <v>57.15894498524447</v>
+        <v>42.98685947929199</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.46881312225421</v>
+        <v>6.23280841437778</v>
       </c>
       <c r="K25">
-        <v>18.65743003132829</v>
+        <v>14.87912640045026</v>
       </c>
       <c r="L25">
-        <v>11.15118853850951</v>
+        <v>6.383923273668992</v>
       </c>
       <c r="M25">
-        <v>19.42383821501754</v>
+        <v>12.50709291922239</v>
       </c>
       <c r="N25">
-        <v>27.50109561036115</v>
+        <v>19.01600486498132</v>
       </c>
       <c r="O25">
         <v>0</v>
